--- a/StructureDefinition-ObservationWeight-HPA.xlsx
+++ b/StructureDefinition-ObservationWeight-HPA.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://etatunghpa.com/StructureDefinition/ObservationWeight-HPA</t>
+    <t>https://twhpa.tsti.com/StructureDefinition/ObservationWeight-HPA</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -1164,7 +1164,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Patient-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Patient-HPA)
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Organization-HPA|https://etatunghpa.com/StructureDefinition/Practitioner-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Organization-HPA|https://twhpa.tsti.com/StructureDefinition/Practitioner-HPA)
 </t>
   </si>
   <si>
